--- a/I18NLib/xml-data.xlsx
+++ b/I18NLib/xml-data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>name</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>de</t>
-  </si>
-  <si>
-    <t>adfasdf</t>
   </si>
   <si>
     <t>* NOTE: Your order will be sent to Peru. If you choose Standard Shipping, please fill in your DNI number (ID card number) to enable a smooth clearance and delivery.</t>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>* HINWEIS: Ihre Bestellung wird nach Peru geschickt. Wenn Sie Standardversand wählen, geben Sie bitte Ihre DNI-Nummer (ID-Kartennummer) ein, um eine reibungslose Abwicklung und Zustellung zu ermöglichen.</t>
-  </si>
-  <si>
-    <t>abc_demo_a223</t>
   </si>
   <si>
     <t>Tax number required</t>
@@ -234,6 +228,9 @@
     <t>Farbe / Größe / Qiy</t>
   </si>
   <si>
+    <t>order_detail_count_down_remind</t>
+  </si>
+  <si>
     <t>Remaining Payment Time:</t>
   </si>
   <si>
@@ -326,10 +323,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -383,37 +380,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -422,45 +388,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -474,21 +417,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -505,7 +441,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -513,7 +449,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,6 +488,37 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,7 +557,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,31 +617,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,7 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,79 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +665,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,25 +713,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -784,26 +781,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,21 +816,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -866,7 +848,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,6 +863,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -889,10 +886,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -901,133 +898,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1429,12 +1426,14 @@
   <sheetPr/>
   <dimension ref="A1:F920"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
+    <col min="1" max="1" width="28.125" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
     <col min="5" max="5" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1459,284 +1458,282 @@
       </c>
     </row>
     <row r="2" ht="319.5" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="5" t="s">
+    </row>
+    <row r="3" ht="39" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="39" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" ht="64.5" spans="1:6">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="5" ht="60.75" spans="1:6">
       <c r="A5" s="3"/>
       <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="F5" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" ht="14.25" spans="1:6">
       <c r="A6" s="8"/>
       <c r="B6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" ht="26.25" spans="1:6">
       <c r="A7" s="3"/>
       <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" ht="39" spans="1:6">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" ht="102.75" spans="1:6">
       <c r="A9" s="3"/>
       <c r="B9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" ht="77.25" spans="1:6">
       <c r="A10" s="3"/>
       <c r="B10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="F10" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" ht="64.5" spans="1:6">
       <c r="A11" s="3"/>
       <c r="B11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="F11" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="12" ht="39" spans="1:6">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="4" t="s">
+    </row>
+    <row r="13" ht="39" spans="1:6">
+      <c r="A13" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="13" ht="39" spans="1:6">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="14" ht="102.75" spans="1:6">
       <c r="A14" s="3"/>
       <c r="B14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" ht="77.25" spans="1:6">
       <c r="A15" s="3"/>
       <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" ht="39" spans="2:6">
       <c r="B16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="2:6">
       <c r="B17" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>81</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1744,7 +1741,7 @@
     </row>
     <row r="18" ht="51.75" spans="2:6">
       <c r="B18" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
